--- a/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/baseline.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/baseline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,61 @@
           <t>magpty</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>wage_contr_to_ed</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>cu_contr_to_ed</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ngdppot_contr_to_ed</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>wage_contr_shortage</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>cu_contr_shortage</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ngdppot_contr_shortage</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>wage_contr_gcpi_via_ed</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>cu_contr_gcpi_via_ed</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ngdppot_contr_gcpi_via_ed</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>gcu_contr_gcpi</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>gcu_contr_gw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -624,6 +679,39 @@
       <c r="W2" t="n">
         <v>1.128416530824383</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.02922048654658926</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.03428013632427085</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.03530281914597388</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -695,6 +783,39 @@
       <c r="W3" t="n">
         <v>1.512595805813133</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.02257103463570331</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.02148138566120839</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.02701215687793024</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,6 +887,39 @@
       <c r="W4" t="n">
         <v>1.871596231659467</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.01596550603039404</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.01174630630727247</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.01658896895558648</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -837,6 +991,39 @@
       <c r="W5" t="n">
         <v>1.660541678943162</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.00722546496104215</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.008013531667309337</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.008171313520501045</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -908,6 +1095,39 @@
       <c r="W6" t="n">
         <v>1.729278982489024</v>
       </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -979,6 +1199,39 @@
       <c r="W7" t="n">
         <v>1.537662139982121</v>
       </c>
+      <c r="X7" t="n">
+        <v>0.01002873734811605</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.01797784164150862</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.009570804711598768</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4638241214031894</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.8314662469114171</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.4426449644044898</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04981026362410087</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.08929150305487896</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.04753582522221271</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.005579484131193801</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.01513906515331653</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1050,6 +1303,39 @@
       <c r="W8" t="n">
         <v>3.336048444763229</v>
       </c>
+      <c r="X8" t="n">
+        <v>0.01358619396364347</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.151029665444864</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.01080228479886713</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.4494422820657746</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-4.996183454970099</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.3573483158358565</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.04623461776667726</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.5139628413931331</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.03676081101292281</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.02179755112064807</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.06700597961610644</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1121,6 +1407,39 @@
       <c r="W9" t="n">
         <v>3.940007692958902</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.01925193149932092</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0570863383509046</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.02433943722991216</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.137671798238795</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15.23436080273326</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-6.495350362405663</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5958176398652898</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.76673428253093</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.7532681095653786</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.002874316744263083</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.03803185522194674</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1192,6 +1511,39 @@
       <c r="W10" t="n">
         <v>3.574689640047302</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.02769080014518543</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.03380811693513852</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.03596874897671043</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-2.35185402389182</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-2.871414167782195</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.05492244975591</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.7673986580634803</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.9369286344796877</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.996806504406806</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.6672117410865654</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.816429832215487</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1263,6 +1615,39 @@
       <c r="W11" t="n">
         <v>3.577612786995887</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.03952525779218874</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.02560003899315788</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.0534259920417739</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-37.96857307754263</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-24.59179283308175</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>51.32183308565772</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-2.617753571642041</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-1.695487828589405</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3.538397705618817</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.1480237479286686</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-1.359058385987417</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1334,6 +1719,39 @@
       <c r="W12" t="n">
         <v>3.5548188871807</v>
       </c>
+      <c r="X12" t="n">
+        <v>0.04779546344085972</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.003527788320844216</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07372653861091294</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-14.83048461656292</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-1.09463967197447</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>22.87665435140111</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-2.234846855327226</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1649542878657146</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.447346486610327</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1402262041891262</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.2184911543699735</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1405,6 +1823,39 @@
       <c r="W13" t="n">
         <v>2.891726937267691</v>
       </c>
+      <c r="X13" t="n">
+        <v>0.06345802400381562</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.005226721957527047</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.0937641366886055</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-3.629623999308326</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.298954084255937</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5.363050081403819</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.252551093457823</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.1031664065478445</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-1.850741080897506</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.2238005034421153</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.3535042657350278</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1476,6 +1927,39 @@
       <c r="W14" t="n">
         <v>2.972223430301435</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.07621415534825271</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-0.01592334306286691</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.1162555345731047</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.337734590342479</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.9062783111887008</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-6.616692808996318</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.1038825724622378</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.02170407625736768</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1584603796924925</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.2038707602638858</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.4700099198750243</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1547,6 +2031,39 @@
       <c r="W15" t="n">
         <v>2.250584675231826</v>
       </c>
+      <c r="X15" t="n">
+        <v>0.08880961520123165</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.01922334998873865</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1417266661597019</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5412848242629492</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1171642011602282</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.8638084222277318</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.3552937029762585</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.0769053574394144</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.5669948227594857</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1236228666022026</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.01198166855976179</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1618,6 +2135,39 @@
       <c r="W16" t="n">
         <v>-0.219016638976699</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.1031983526533304</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.02303083280429785</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.1696111612386186</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-1.999661797231634</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.4462656169705559</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.286534627663119</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.325109545015457</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.07255487497445724</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.534332245060804</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.01340588119028752</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0.06900073680243679</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1689,6 +2239,39 @@
       <c r="W17" t="n">
         <v>-0.8560581919365262</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.1148188836763495</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.01999482553647258</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.1863278053582871</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.233603995280957</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.2148226483046615</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-2.001889565220194</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.0384957408619013</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.006703737205812268</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.06247079470532135</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.1372600118236607</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.08632726983346561</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1760,6 +2343,39 @@
       <c r="W18" t="n">
         <v>-0.2096032942362047</v>
       </c>
+      <c r="X18" t="n">
+        <v>0.1263059276634806</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.01104843406225964</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.2011288848330306</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.857797933557207</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1625082713821334</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-2.958347510158123</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.009788681531332758</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.0008562512025843619</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.01558744420632512</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.06225814411308583</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.02345471088259909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1831,6 +2447,39 @@
       <c r="W19" t="n">
         <v>-0.7746714240972175</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.1382896724646008</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-0.007793395941804171</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.2157638358458023</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-1.650681587438936</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.09302513308107292</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.575444606371685</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-0.01760139856652062</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0009919371831147647</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.02746224792697688</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.0235713039910781</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.004103230162844973</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1901,6 +2550,39 @@
       </c>
       <c r="W20" t="n">
         <v>-0.6383455064458143</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.1482710404226308</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0.00466377738107937</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.2259159112090003</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.06588312639778197</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.002072314551870309</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.1003840432428832</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0201731748905018</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-0.0006345352166593454</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-0.03073723077936015</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.01525976423996189</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.08987924439261885</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/baseline.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/baseline.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>cu</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -545,67 +545,77 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>excess_demand_simul</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>excess_demand_baseline</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>gscpi</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>magpty</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_contr_to_ed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>cu_contr_to_ed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ngdppot_contr_to_ed</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>wage_contr_shortage</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>cu_contr_shortage</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ngdppot_contr_shortage</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>wage_contr_gcpi_via_ed</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>cu_contr_gcpi_via_ed</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>ngdppot_contr_gcpi_via_ed</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>gcu_contr_gcpi</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>gcu_contr_gw</t>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>cu_contr_gcpi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>cu_contr_gw</t>
         </is>
       </c>
     </row>
@@ -668,48 +678,54 @@
         <v>1.196216736133376</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.09327418766886808</v>
+        <v>0.04983734759693073</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.819108862458768</v>
+        <v>-0.1085213692111502</v>
       </c>
       <c r="V2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.4664039581587493</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>1.128416530824383</v>
       </c>
-      <c r="X2" t="n">
-        <v>-0.02922048654658926</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.03428013632427085</v>
-      </c>
       <c r="Z2" t="n">
+        <v>-0.02922048654658838</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.03428013632427149</v>
+      </c>
+      <c r="AB2" t="n">
         <v>0.03530281914597388</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,48 +788,54 @@
         <v>1.170376301040833</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.119500265224985</v>
+        <v>0.03383990835209155</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.807951322152864</v>
+        <v>-0.09098396086582916</v>
       </c>
       <c r="V3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.2929262229925918</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>1.512595805813133</v>
       </c>
-      <c r="X3" t="n">
-        <v>-0.02257103463570331</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.02148138566120839</v>
-      </c>
       <c r="Z3" t="n">
+        <v>-0.02257103463570242</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.021481385661209</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0.02701215687793024</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,48 +898,54 @@
         <v>1.218581081081081</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.894031741574366</v>
+        <v>0.02047929813409821</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.802033902115962</v>
+        <v>-0.07805013764303048</v>
       </c>
       <c r="V4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.3470782337164486</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>1.871596231659467</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>-0.01596550603039404</v>
       </c>
-      <c r="Y4" t="n">
-        <v>-0.01174630630727247</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
+        <v>-0.01174630630727241</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.01658896895558648</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,48 +1008,54 @@
         <v>1.203850700895119</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.493109855985253</v>
+        <v>0.01359484608495071</v>
       </c>
       <c r="U5" t="n">
-        <v>-4.797978741841733</v>
+        <v>-0.06752585519471843</v>
       </c>
       <c r="V5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="X5" t="n">
         <v>-0.1832859707783361</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>1.660541678943162</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>-0.00722546496104215</v>
       </c>
-      <c r="Y5" t="n">
-        <v>-0.008013531667309337</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
+        <v>-0.008013531667309837</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.008171313520501045</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>-0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,46 +1067,46 @@
         <v>2.89018598441686</v>
       </c>
       <c r="C6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="D6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="E6" t="n">
         <v>3.269114943456231</v>
       </c>
       <c r="F6" t="n">
-        <v>3.772925235385979</v>
+        <v>3.471513532126307</v>
       </c>
       <c r="G6" t="n">
-        <v>3.772925235385979</v>
+        <v>3.471513532126307</v>
       </c>
       <c r="H6" t="n">
         <v>4.666666507720947</v>
       </c>
       <c r="I6" t="n">
-        <v>6.675019739674919</v>
+        <v>4.134383672306547</v>
       </c>
       <c r="J6" t="n">
-        <v>6.675019739674919</v>
+        <v>4.134383672306547</v>
       </c>
       <c r="K6" t="n">
         <v>1.70378442</v>
       </c>
       <c r="L6" t="n">
-        <v>1.673344580463033</v>
+        <v>1.650640566054859</v>
       </c>
       <c r="M6" t="n">
-        <v>1.673344580463033</v>
+        <v>1.650640566054859</v>
       </c>
       <c r="N6" t="n">
         <v>1.7145255</v>
       </c>
       <c r="O6" t="n">
-        <v>1.639820549148071</v>
+        <v>1.630666278101932</v>
       </c>
       <c r="P6" t="n">
-        <v>1.639820549148071</v>
+        <v>1.630666278101932</v>
       </c>
       <c r="Q6" t="n">
         <v>12.01264099037156</v>
@@ -1084,48 +1118,54 @@
         <v>1.181126331811263</v>
       </c>
       <c r="T6" t="n">
-        <v>-3.205412666923735</v>
+        <v>0.003097988771499527</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.790911058733882</v>
+        <v>-0.05473029219889014</v>
       </c>
       <c r="V6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.09742270972776415</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>1.729278982489024</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>-0</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>-0</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1137,46 +1177,46 @@
         <v>4.011494939246774</v>
       </c>
       <c r="C7" t="n">
-        <v>2.68275335477694</v>
+        <v>2.681898241323125</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68275335477694</v>
+        <v>2.681898241323125</v>
       </c>
       <c r="E7" t="n">
         <v>-0.7616985697598722</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8610308717646538</v>
+        <v>-0.2649063089785774</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8610308717646538</v>
+        <v>-0.2649063089785774</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>11.73207911941899</v>
+        <v>16.75034083021996</v>
       </c>
       <c r="J7" t="n">
-        <v>11.73207911941899</v>
+        <v>16.75034083021996</v>
       </c>
       <c r="K7" t="n">
         <v>0.98707392</v>
       </c>
       <c r="L7" t="n">
-        <v>1.622770706495726</v>
+        <v>1.621517967464725</v>
       </c>
       <c r="M7" t="n">
-        <v>1.622770706495726</v>
+        <v>1.621517967464725</v>
       </c>
       <c r="N7" t="n">
         <v>1.26977517</v>
       </c>
       <c r="O7" t="n">
-        <v>1.577097966929351</v>
+        <v>1.58439443092401</v>
       </c>
       <c r="P7" t="n">
-        <v>1.577097966929351</v>
+        <v>1.58439443092401</v>
       </c>
       <c r="Q7" t="n">
         <v>-41.83859518743878</v>
@@ -1188,49 +1228,55 @@
         <v>1.068356867779204</v>
       </c>
       <c r="T7" t="n">
-        <v>-7.191136656603447</v>
+        <v>-0.01632934159173205</v>
       </c>
       <c r="U7" t="n">
-        <v>-4.772475284455856</v>
+        <v>-0.03173426093010878</v>
       </c>
       <c r="V7" t="n">
+        <v>0.02174827518237343</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02174827518237343</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.27602885000369</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>1.537662139982121</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.01002873734811605</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.01797784164150862</v>
-      </c>
       <c r="Z7" t="n">
+        <v>0.01002873734811693</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.01797784164150806</v>
+      </c>
+      <c r="AB7" t="n">
         <v>-0.009570804711598768</v>
       </c>
-      <c r="AA7" t="n">
-        <v>-0.4638241214031894</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-0.8314662469114171</v>
-      </c>
       <c r="AC7" t="n">
-        <v>0.4426449644044898</v>
+        <v>0.1724342492437174</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.04981026362410087</v>
+        <v>0.3091112588623094</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.08929150305487896</v>
+        <v>-0.1645605491316059</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.04753582522221271</v>
+        <v>0.02379818814615146</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.005579484131193801</v>
+        <v>0.04266140821074146</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.01513906515331653</v>
+        <v>-0.02271151425453052</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.001099119732714593</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.003055458875428574</v>
       </c>
     </row>
     <row r="8">
@@ -1241,46 +1287,46 @@
         <v>1.422982646210968</v>
       </c>
       <c r="C8" t="n">
-        <v>1.455390892462773</v>
+        <v>1.486408610090085</v>
       </c>
       <c r="D8" t="n">
-        <v>1.455390892462773</v>
+        <v>1.486408610090085</v>
       </c>
       <c r="E8" t="n">
         <v>-1.767392365014331</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0877007684786715</v>
+        <v>0.07000761014104331</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0877007684786715</v>
+        <v>0.07000761014104331</v>
       </c>
       <c r="H8" t="n">
         <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>9.588970502731973</v>
+        <v>12.79881518197517</v>
       </c>
       <c r="J8" t="n">
-        <v>9.588970502731973</v>
+        <v>12.79881518197517</v>
       </c>
       <c r="K8" t="n">
         <v>0.51275711</v>
       </c>
       <c r="L8" t="n">
-        <v>1.142926183647703</v>
+        <v>1.233422454505567</v>
       </c>
       <c r="M8" t="n">
-        <v>1.142926183647703</v>
+        <v>1.233422454505567</v>
       </c>
       <c r="N8" t="n">
         <v>1.23186673</v>
       </c>
       <c r="O8" t="n">
-        <v>1.471541942582475</v>
+        <v>1.491993101741177</v>
       </c>
       <c r="P8" t="n">
-        <v>1.471541942582475</v>
+        <v>1.491993101741177</v>
       </c>
       <c r="Q8" t="n">
         <v>-31.49878239638355</v>
@@ -1292,49 +1338,55 @@
         <v>0.2659460512221248</v>
       </c>
       <c r="T8" t="n">
-        <v>-53.22072952134214</v>
+        <v>-0.1471797616823544</v>
       </c>
       <c r="U8" t="n">
-        <v>-4.637097484124242</v>
+        <v>0.104098170574666</v>
       </c>
       <c r="V8" t="n">
+        <v>0.127299531866532</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.127299531866532</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.650413416928139</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>3.336048444763229</v>
       </c>
-      <c r="X8" t="n">
-        <v>0.01358619396364347</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.151029665444864</v>
-      </c>
       <c r="Z8" t="n">
+        <v>0.01358619396364524</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1510296654448635</v>
+      </c>
+      <c r="AB8" t="n">
         <v>-0.01080228479886713</v>
       </c>
-      <c r="AA8" t="n">
-        <v>-0.4494422820657746</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>-4.996183454970099</v>
-      </c>
       <c r="AC8" t="n">
-        <v>0.3573483158358565</v>
+        <v>-0.2611901907659731</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.04623461776667726</v>
+        <v>-2.903496537324647</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.5139628413931331</v>
+        <v>0.2076704362439022</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03676081101292281</v>
+        <v>-0.0297852073168869</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.02179755112064807</v>
+        <v>-0.3311044953658508</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.06700597961610644</v>
+        <v>0.0236820034434417</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.008037257730712954</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02056741267354933</v>
       </c>
     </row>
     <row r="9">
@@ -1345,46 +1397,46 @@
         <v>2.266295014270625</v>
       </c>
       <c r="C9" t="n">
-        <v>2.247239031746194</v>
+        <v>2.312579328959754</v>
       </c>
       <c r="D9" t="n">
-        <v>2.247239031746194</v>
+        <v>2.312579328959754</v>
       </c>
       <c r="E9" t="n">
         <v>4.708621821546899</v>
       </c>
       <c r="F9" t="n">
-        <v>4.424047150802374</v>
+        <v>3.876071545275222</v>
       </c>
       <c r="G9" t="n">
-        <v>4.424047150802374</v>
+        <v>3.876071545275222</v>
       </c>
       <c r="H9" t="n">
         <v>25.33333396911621</v>
       </c>
       <c r="I9" t="n">
-        <v>21.58532461838503</v>
+        <v>16.01338639900145</v>
       </c>
       <c r="J9" t="n">
-        <v>21.58532461838503</v>
+        <v>16.01338639900145</v>
       </c>
       <c r="K9" t="n">
         <v>1.5827644</v>
       </c>
       <c r="L9" t="n">
-        <v>1.481092328565115</v>
+        <v>1.483101355570453</v>
       </c>
       <c r="M9" t="n">
-        <v>1.481092328565115</v>
+        <v>1.483101355570453</v>
       </c>
       <c r="N9" t="n">
         <v>1.35099923</v>
       </c>
       <c r="O9" t="n">
-        <v>1.591917283769665</v>
+        <v>1.586132435805995</v>
       </c>
       <c r="P9" t="n">
-        <v>1.591917283769665</v>
+        <v>1.586132435805995</v>
       </c>
       <c r="Q9" t="n">
         <v>18.55721009566542</v>
@@ -1396,49 +1448,55 @@
         <v>0.4567430025445293</v>
       </c>
       <c r="T9" t="n">
-        <v>37.57733083758374</v>
+        <v>-0.05272372280058346</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.738912226113569</v>
+        <v>0.004751989929596689</v>
       </c>
       <c r="V9" t="n">
+        <v>0.02549544645810187</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02549544645810187</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.570883874478723</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>3.940007692958902</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.01925193149932092</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0.0570863383509046</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-0.02433943722991216</v>
-      </c>
       <c r="AA9" t="n">
-        <v>5.137671798238795</v>
+        <v>0.05708633835090476</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.23436080273326</v>
+        <v>-0.02433943722991039</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.495350362405663</v>
+        <v>3.631339065988278</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5958176398652898</v>
+        <v>10.76774299738068</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.76673428253093</v>
+        <v>-4.590954900304977</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.7532681095653786</v>
+        <v>0.4206346445511006</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.002874316744263083</v>
+        <v>1.247277014350674</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.03803185522194674</v>
+        <v>-0.5317913440601173</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.1299106745861942</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.3746160871396409</v>
       </c>
     </row>
     <row r="10">
@@ -1449,46 +1507,46 @@
         <v>3.375547458346162</v>
       </c>
       <c r="C10" t="n">
-        <v>3.139811021247704</v>
+        <v>3.14394760202816</v>
       </c>
       <c r="D10" t="n">
-        <v>3.139811021247704</v>
+        <v>3.14394760202816</v>
       </c>
       <c r="E10" t="n">
         <v>3.073967747275219</v>
       </c>
       <c r="F10" t="n">
-        <v>2.971486362465133</v>
+        <v>3.357129115416063</v>
       </c>
       <c r="G10" t="n">
-        <v>2.971486362465133</v>
+        <v>3.357129115416063</v>
       </c>
       <c r="H10" t="n">
         <v>9.666666984558105</v>
       </c>
       <c r="I10" t="n">
-        <v>6.15142737601154</v>
+        <v>7.261067465036381</v>
       </c>
       <c r="J10" t="n">
-        <v>6.15142737601154</v>
+        <v>7.261067465036381</v>
       </c>
       <c r="K10" t="n">
         <v>1.64952129</v>
       </c>
       <c r="L10" t="n">
-        <v>2.005381695100724</v>
+        <v>1.965506508536861</v>
       </c>
       <c r="M10" t="n">
-        <v>2.005381695100724</v>
+        <v>1.965506508536861</v>
       </c>
       <c r="N10" t="n">
         <v>1.41717038</v>
       </c>
       <c r="O10" t="n">
-        <v>1.670912946349907</v>
+        <v>1.672619806896836</v>
       </c>
       <c r="P10" t="n">
-        <v>1.670912946349907</v>
+        <v>1.672619806896836</v>
       </c>
       <c r="Q10" t="n">
         <v>14.49319216493947</v>
@@ -1500,49 +1558,55 @@
         <v>0.6294798750229738</v>
       </c>
       <c r="T10" t="n">
-        <v>9.31128856630643</v>
+        <v>-0.02930731673650933</v>
       </c>
       <c r="U10" t="n">
-        <v>-4.765380890630269</v>
+        <v>-0.01888149533613426</v>
       </c>
       <c r="V10" t="n">
+        <v>6.852804213863806e-05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.852804213863806e-05</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.8410196452352154</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>3.574689640047302</v>
       </c>
-      <c r="X10" t="n">
-        <v>0.02769080014518543</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.03380811693513852</v>
-      </c>
       <c r="Z10" t="n">
+        <v>0.02769080014518721</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.03380811693513808</v>
+      </c>
+      <c r="AB10" t="n">
         <v>-0.03596874897671043</v>
       </c>
-      <c r="AA10" t="n">
-        <v>-2.35185402389182</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-2.871414167782195</v>
-      </c>
       <c r="AC10" t="n">
-        <v>3.05492244975591</v>
+        <v>-2.212253808399633</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.7673986580634803</v>
+        <v>-2.700974152152788</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.9369286344796877</v>
+        <v>2.873589838137199</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.996806504406806</v>
+        <v>-0.5118569477618073</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6672117410865654</v>
+        <v>-0.6249338933241955</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.816429832215487</v>
+        <v>0.664872591961902</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.6467390080828732</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.587953818099889</v>
       </c>
     </row>
     <row r="11">
@@ -1553,46 +1617,46 @@
         <v>4.733783058800967</v>
       </c>
       <c r="C11" t="n">
-        <v>4.685971915471208</v>
+        <v>4.769251046133015</v>
       </c>
       <c r="D11" t="n">
-        <v>4.685971915471208</v>
+        <v>4.769251046133015</v>
       </c>
       <c r="E11" t="n">
         <v>4.370864955330944</v>
       </c>
       <c r="F11" t="n">
-        <v>5.642684731332617</v>
+        <v>5.69154237085891</v>
       </c>
       <c r="G11" t="n">
-        <v>5.642684731332617</v>
+        <v>5.69154237085891</v>
       </c>
       <c r="H11" t="n">
         <v>11.66666698455811</v>
       </c>
       <c r="I11" t="n">
-        <v>5.871188746126693</v>
+        <v>9.498894123785508</v>
       </c>
       <c r="J11" t="n">
-        <v>5.871188746126693</v>
+        <v>9.498894123785508</v>
       </c>
       <c r="K11" t="n">
         <v>1.51383809</v>
       </c>
       <c r="L11" t="n">
-        <v>2.175852300107213</v>
+        <v>2.218680642165779</v>
       </c>
       <c r="M11" t="n">
-        <v>2.175852300107213</v>
+        <v>2.218680642165779</v>
       </c>
       <c r="N11" t="n">
         <v>1.4974036</v>
       </c>
       <c r="O11" t="n">
-        <v>1.755352861694985</v>
+        <v>1.769048284432477</v>
       </c>
       <c r="P11" t="n">
-        <v>1.755352861694985</v>
+        <v>1.769048284432477</v>
       </c>
       <c r="Q11" t="n">
         <v>35.50855768145307</v>
@@ -1604,49 +1668,55 @@
         <v>0.7817085427135678</v>
       </c>
       <c r="T11" t="n">
-        <v>3.283231176792256</v>
+        <v>-0.02099259232997752</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.779211753990309</v>
+        <v>-0.0298617815314195</v>
       </c>
       <c r="V11" t="n">
+        <v>-0.005594780056057402</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.005594780056057402</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.812571061195705</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>3.577612786995887</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.03952525779218874</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0.02560003899315788</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.0534259920417739</v>
-      </c>
       <c r="AA11" t="n">
-        <v>-37.96857307754263</v>
+        <v>0.02560003899315777</v>
       </c>
       <c r="AB11" t="n">
-        <v>-24.59179283308175</v>
+        <v>-0.05342599204177034</v>
       </c>
       <c r="AC11" t="n">
-        <v>51.32183308565772</v>
+        <v>-15.1733269558893</v>
       </c>
       <c r="AD11" t="n">
-        <v>-2.617753571642041</v>
+        <v>-9.827583257495256</v>
       </c>
       <c r="AE11" t="n">
-        <v>-1.695487828589405</v>
+        <v>20.5096712956222</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.538397705618817</v>
+        <v>-1.106450355363544</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.1480237479286686</v>
+        <v>-0.7166347248188679</v>
       </c>
       <c r="AH11" t="n">
-        <v>-1.359058385987417</v>
+        <v>1.495580577641394</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.02143660639014033</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.9836579724965206</v>
       </c>
     </row>
     <row r="12">
@@ -1657,46 +1727,46 @@
         <v>3.308082259468748</v>
       </c>
       <c r="C12" t="n">
-        <v>3.051578431063327</v>
+        <v>3.623297683991042</v>
       </c>
       <c r="D12" t="n">
-        <v>3.051578431063327</v>
+        <v>3.623297683991042</v>
       </c>
       <c r="E12" t="n">
         <v>8.433977636784817</v>
       </c>
       <c r="F12" t="n">
-        <v>5.644742881575044</v>
+        <v>5.840943416664348</v>
       </c>
       <c r="G12" t="n">
-        <v>5.644742881575044</v>
+        <v>5.840943416664348</v>
       </c>
       <c r="H12" t="n">
         <v>48.33333206176758</v>
       </c>
       <c r="I12" t="n">
-        <v>29.86969587718812</v>
+        <v>30.34898733752184</v>
       </c>
       <c r="J12" t="n">
-        <v>29.86969587718812</v>
+        <v>30.34898733752184</v>
       </c>
       <c r="K12" t="n">
         <v>2.05518859</v>
       </c>
       <c r="L12" t="n">
-        <v>2.58275676544662</v>
+        <v>2.619004116896199</v>
       </c>
       <c r="M12" t="n">
-        <v>2.58275676544662</v>
+        <v>2.619004116896199</v>
       </c>
       <c r="N12" t="n">
         <v>1.59628851</v>
       </c>
       <c r="O12" t="n">
-        <v>1.887642982136431</v>
+        <v>1.899391520229118</v>
       </c>
       <c r="P12" t="n">
-        <v>1.887642982136431</v>
+        <v>1.899391520229118</v>
       </c>
       <c r="Q12" t="n">
         <v>4.392433825484932</v>
@@ -1708,49 +1778,55 @@
         <v>1.024313230186296</v>
       </c>
       <c r="T12" t="n">
-        <v>8.828900268925466</v>
+        <v>0.0007249708631997254</v>
       </c>
       <c r="U12" t="n">
-        <v>-4.813314345583091</v>
+        <v>-0.06050147960863761</v>
       </c>
       <c r="V12" t="n">
+        <v>-0.02600798774399493</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.02600798774399493</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.786346790399654</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>3.5548188871807</v>
       </c>
-      <c r="X12" t="n">
-        <v>0.04779546344085972</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.003527788320844216</v>
-      </c>
       <c r="Z12" t="n">
-        <v>-0.07372653861091294</v>
+        <v>0.04779546344086061</v>
       </c>
       <c r="AA12" t="n">
-        <v>-14.83048461656292</v>
+        <v>0.003527788320843717</v>
       </c>
       <c r="AB12" t="n">
-        <v>-1.09463967197447</v>
+        <v>-0.07372653861091116</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.87665435140111</v>
+        <v>-63.16396896693284</v>
       </c>
       <c r="AD12" t="n">
-        <v>-2.234846855327226</v>
+        <v>-4.662139374281761</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.1649542878657146</v>
+        <v>97.433113136796</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.447346486610327</v>
+        <v>-8.486271394061653</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.1402262041891262</v>
+        <v>-0.6263726085326931</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.2184911543699735</v>
+        <v>13.09043517008926</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.2061384206402597</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.5114472160176113</v>
       </c>
     </row>
     <row r="13">
@@ -1761,46 +1837,46 @@
         <v>6.265024225182358</v>
       </c>
       <c r="C13" t="n">
-        <v>4.786021202428842</v>
+        <v>4.635069569002582</v>
       </c>
       <c r="D13" t="n">
-        <v>4.786021202428842</v>
+        <v>4.635069569002582</v>
       </c>
       <c r="E13" t="n">
         <v>5.09604073699208</v>
       </c>
       <c r="F13" t="n">
-        <v>5.179151432678202</v>
+        <v>5.470522160274122</v>
       </c>
       <c r="G13" t="n">
-        <v>5.179151432678202</v>
+        <v>5.470522160274122</v>
       </c>
       <c r="H13" t="n">
         <v>22.33333396911621</v>
       </c>
       <c r="I13" t="n">
-        <v>21.84513808783346</v>
+        <v>21.7664823413311</v>
       </c>
       <c r="J13" t="n">
-        <v>21.84513808783346</v>
+        <v>21.7664823413311</v>
       </c>
       <c r="K13" t="n">
         <v>2.68413713</v>
       </c>
       <c r="L13" t="n">
-        <v>2.638982522946429</v>
+        <v>2.706604821426906</v>
       </c>
       <c r="M13" t="n">
-        <v>2.638982522946429</v>
+        <v>2.706604821426906</v>
       </c>
       <c r="N13" t="n">
         <v>1.64278592</v>
       </c>
       <c r="O13" t="n">
-        <v>1.946752217396281</v>
+        <v>1.969362523401777</v>
       </c>
       <c r="P13" t="n">
-        <v>1.946752217396281</v>
+        <v>1.969362523401777</v>
       </c>
       <c r="Q13" t="n">
         <v>17.10368750618429</v>
@@ -1812,49 +1888,55 @@
         <v>1.324590163934426</v>
       </c>
       <c r="T13" t="n">
-        <v>3.501804111348505</v>
+        <v>0.009120533922375385</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.826443893376199</v>
+        <v>-0.07019994069958724</v>
       </c>
       <c r="V13" t="n">
+        <v>-0.0304102554248713</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.0304102554248713</v>
+      </c>
+      <c r="X13" t="n">
         <v>3.143664257149126</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>2.891726937267691</v>
       </c>
-      <c r="X13" t="n">
-        <v>0.06345802400381562</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.005226721957527047</v>
-      </c>
       <c r="Z13" t="n">
-        <v>-0.0937641366886055</v>
+        <v>0.0634580240038165</v>
       </c>
       <c r="AA13" t="n">
-        <v>-3.629623999308326</v>
+        <v>-0.005226721957527491</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.298954084255937</v>
+        <v>-0.09376413668861083</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.363050081403819</v>
+        <v>-7.877273194321046</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.252551093457823</v>
+        <v>0.6488118313883259</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.1031664065478445</v>
+        <v>11.63928017174672</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.850741080897506</v>
+        <v>2.426073556735663</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.2238005034421153</v>
+        <v>-0.1998236177162479</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.3535042657350278</v>
+        <v>-3.584711250648238</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.3442919603128534</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.2232269293209725</v>
       </c>
     </row>
     <row r="14">
@@ -1865,46 +1947,46 @@
         <v>5.102452537774838</v>
       </c>
       <c r="C14" t="n">
-        <v>5.154054525646765</v>
+        <v>5.351065885049699</v>
       </c>
       <c r="D14" t="n">
-        <v>5.154054525646765</v>
+        <v>5.351065885049699</v>
       </c>
       <c r="E14" t="n">
         <v>9.888864910520567</v>
       </c>
       <c r="F14" t="n">
-        <v>8.332069175891752</v>
+        <v>8.39682451050151</v>
       </c>
       <c r="G14" t="n">
-        <v>8.332069175891752</v>
+        <v>8.39682451050151</v>
       </c>
       <c r="H14" t="n">
         <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>20.07087259791499</v>
+        <v>21.20429605383146</v>
       </c>
       <c r="J14" t="n">
-        <v>20.07087259791499</v>
+        <v>21.20429605383146</v>
       </c>
       <c r="K14" t="n">
         <v>2.62030861</v>
       </c>
       <c r="L14" t="n">
-        <v>2.917261858019484</v>
+        <v>2.975619533785916</v>
       </c>
       <c r="M14" t="n">
-        <v>2.917261858019484</v>
+        <v>2.975619533785916</v>
       </c>
       <c r="N14" t="n">
         <v>1.75897506</v>
       </c>
       <c r="O14" t="n">
-        <v>2.102298075123608</v>
+        <v>2.124780261450438</v>
       </c>
       <c r="P14" t="n">
-        <v>2.102298075123608</v>
+        <v>2.124780261450438</v>
       </c>
       <c r="Q14" t="n">
         <v>28.67942852294387</v>
@@ -1916,49 +1998,55 @@
         <v>1.683044881196832</v>
       </c>
       <c r="T14" t="n">
-        <v>4.278648442135946</v>
+        <v>0.01933156917655629</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.846875781021601</v>
+        <v>-0.08685919127319508</v>
       </c>
       <c r="V14" t="n">
+        <v>-0.03482696475469549</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.03482696475469549</v>
+      </c>
+      <c r="X14" t="n">
         <v>4.104742762744237</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>2.972223430301435</v>
       </c>
-      <c r="X14" t="n">
-        <v>0.07621415534825271</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>-0.01592334306286691</v>
-      </c>
       <c r="Z14" t="n">
-        <v>-0.1162555345731047</v>
+        <v>0.0762141553482536</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.337734590342479</v>
+        <v>-0.0159233430628675</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.9062783111887008</v>
+        <v>-0.1162555345731011</v>
       </c>
       <c r="AC14" t="n">
-        <v>-6.616692808996318</v>
+        <v>7.533581359157216</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.1038825724622378</v>
+        <v>-1.573983204638805</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02170407625736768</v>
+        <v>-11.49157297823206</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1584603796924925</v>
+        <v>-0.1428580868756824</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.2038707602638858</v>
+        <v>0.02984718936045447</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.4700099198750243</v>
+        <v>0.2179128428562128</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.01465599500563464</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.2710547439190387</v>
       </c>
     </row>
     <row r="15">
@@ -1969,46 +2057,46 @@
         <v>5.038183941191221</v>
       </c>
       <c r="C15" t="n">
-        <v>5.752346961853759</v>
+        <v>5.992103053940109</v>
       </c>
       <c r="D15" t="n">
-        <v>5.752346961853759</v>
+        <v>5.992103053940109</v>
       </c>
       <c r="E15" t="n">
         <v>9.269204386336938</v>
       </c>
       <c r="F15" t="n">
-        <v>9.689150780674019</v>
+        <v>9.900676443224841</v>
       </c>
       <c r="G15" t="n">
-        <v>9.689150780674019</v>
+        <v>9.900676443224841</v>
       </c>
       <c r="H15" t="n">
         <v>19.66666603088379</v>
       </c>
       <c r="I15" t="n">
-        <v>21.17182422945953</v>
+        <v>22.242534545903</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17182422945953</v>
+        <v>22.242534545903</v>
       </c>
       <c r="K15" t="n">
         <v>3.05769883</v>
       </c>
       <c r="L15" t="n">
-        <v>3.560826010827981</v>
+        <v>3.604711091070687</v>
       </c>
       <c r="M15" t="n">
-        <v>3.560826010827981</v>
+        <v>3.604711091070687</v>
       </c>
       <c r="N15" t="n">
         <v>1.94721641</v>
       </c>
       <c r="O15" t="n">
-        <v>2.320890683920484</v>
+        <v>2.344733986517406</v>
       </c>
       <c r="P15" t="n">
-        <v>2.320890683920484</v>
+        <v>2.344733986517406</v>
       </c>
       <c r="Q15" t="n">
         <v>40.09111468532782</v>
@@ -2020,49 +2108,55 @@
         <v>1.872200895713372</v>
       </c>
       <c r="T15" t="n">
-        <v>1.320002770348694</v>
+        <v>0.0221717436853455</v>
       </c>
       <c r="U15" t="n">
-        <v>-4.863051459681091</v>
+        <v>-0.09908871752493198</v>
       </c>
       <c r="V15" t="n">
+        <v>-0.03077909161387904</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.03077909161387904</v>
+      </c>
+      <c r="X15" t="n">
         <v>3.017003504476579</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>2.250584675231826</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.08880961520123165</v>
       </c>
-      <c r="Y15" t="n">
-        <v>-0.01922334998873865</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-0.1417266661597019</v>
-      </c>
       <c r="AA15" t="n">
-        <v>0.5412848242629492</v>
+        <v>-0.01922334998873856</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.1171642011602282</v>
+        <v>-0.1417266661597001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.8638084222277318</v>
+        <v>0.6921858105624107</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.3552937029762585</v>
+        <v>-0.1498275841363557</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0769053574394144</v>
+        <v>-1.104623492307392</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5669948227594857</v>
+        <v>-0.4897867448564611</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.1236228666022026</v>
+        <v>0.1060171468470699</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01198166855976179</v>
+        <v>0.781625303976716</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.07357975171145092</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.146668722349852</v>
       </c>
     </row>
     <row r="16">
@@ -2073,46 +2167,46 @@
         <v>5.75549498083987</v>
       </c>
       <c r="C16" t="n">
-        <v>5.809621549778978</v>
+        <v>5.88770697675016</v>
       </c>
       <c r="D16" t="n">
-        <v>5.809621549778978</v>
+        <v>5.88770697675016</v>
       </c>
       <c r="E16" t="n">
         <v>9.970973166629804</v>
       </c>
       <c r="F16" t="n">
-        <v>9.524404161812692</v>
+        <v>9.741312558054574</v>
       </c>
       <c r="G16" t="n">
-        <v>9.524404161812692</v>
+        <v>9.741312558054574</v>
       </c>
       <c r="H16" t="n">
         <v>32.66666793823242</v>
       </c>
       <c r="I16" t="n">
-        <v>27.21708107673818</v>
+        <v>28.09788040369346</v>
       </c>
       <c r="J16" t="n">
-        <v>27.21708107673818</v>
+        <v>28.09788040369346</v>
       </c>
       <c r="K16" t="n">
         <v>4.22671337</v>
       </c>
       <c r="L16" t="n">
-        <v>3.941656099057644</v>
+        <v>4.009290449505922</v>
       </c>
       <c r="M16" t="n">
-        <v>3.941656099057644</v>
+        <v>4.009290449505922</v>
       </c>
       <c r="N16" t="n">
         <v>2.40126382</v>
       </c>
       <c r="O16" t="n">
-        <v>2.484052237611872</v>
+        <v>2.514523770441072</v>
       </c>
       <c r="P16" t="n">
-        <v>2.484052237611872</v>
+        <v>2.514523770441072</v>
       </c>
       <c r="Q16" t="n">
         <v>30.21818142720733</v>
@@ -2124,49 +2218,55 @@
         <v>1.909121395036888</v>
       </c>
       <c r="T16" t="n">
-        <v>1.522993126223682</v>
+        <v>0.02543743130201781</v>
       </c>
       <c r="U16" t="n">
-        <v>-4.880354700123468</v>
+        <v>-0.1121312753026862</v>
       </c>
       <c r="V16" t="n">
+        <v>-0.02787615318839265</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.02787615318839265</v>
+      </c>
+      <c r="X16" t="n">
         <v>2.79870693437819</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>-0.219016638976699</v>
       </c>
-      <c r="X16" t="n">
-        <v>0.1031983526533304</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>-0.02303083280429785</v>
-      </c>
       <c r="Z16" t="n">
-        <v>-0.1696111612386186</v>
+        <v>0.1031983526533322</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.999661797231634</v>
+        <v>-0.02303083280429824</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4462656169705559</v>
+        <v>-0.1696111612386204</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.286534627663119</v>
+        <v>-3.723492959215287</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.325109545015457</v>
+        <v>0.8309739602117571</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.07255487497445724</v>
+        <v>6.119729127826727</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.534332245060804</v>
+        <v>0.4216481811541567</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.01340588119028752</v>
+        <v>-0.09409945520176169</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.06900073680243679</v>
+        <v>-0.6929978609246674</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.06778484227206505</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.1306841742144664</v>
       </c>
     </row>
     <row r="17">
@@ -2177,46 +2277,46 @@
         <v>4.648212409207275</v>
       </c>
       <c r="C17" t="n">
-        <v>4.906247742980721</v>
+        <v>5.163050389767069</v>
       </c>
       <c r="D17" t="n">
-        <v>4.906247742980721</v>
+        <v>5.163050389767069</v>
       </c>
       <c r="E17" t="n">
         <v>2.450338900423787</v>
       </c>
       <c r="F17" t="n">
-        <v>2.116962184505387</v>
+        <v>2.39407137153823</v>
       </c>
       <c r="G17" t="n">
-        <v>2.116962184505387</v>
+        <v>2.39407137153823</v>
       </c>
       <c r="H17" t="n">
         <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>18.63255475790504</v>
+        <v>20.45377905389774</v>
       </c>
       <c r="J17" t="n">
-        <v>18.63255475790504</v>
+        <v>20.45377905389774</v>
       </c>
       <c r="K17" t="n">
         <v>4.17914969</v>
       </c>
       <c r="L17" t="n">
-        <v>3.534653124756608</v>
+        <v>3.613152087650594</v>
       </c>
       <c r="M17" t="n">
-        <v>3.534653124756608</v>
+        <v>3.613152087650594</v>
       </c>
       <c r="N17" t="n">
         <v>2.36598926</v>
       </c>
       <c r="O17" t="n">
-        <v>2.402930955765044</v>
+        <v>2.438618619779124</v>
       </c>
       <c r="P17" t="n">
-        <v>2.402930955765044</v>
+        <v>2.438618619779124</v>
       </c>
       <c r="Q17" t="n">
         <v>-46.79661489942228</v>
@@ -2228,49 +2328,55 @@
         <v>1.852467443454421</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.214402907130108</v>
+        <v>0.02179688598213175</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.882414805952292</v>
+        <v>-0.1098773244121425</v>
       </c>
       <c r="V17" t="n">
+        <v>-0.02056173744951462</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.02056173744951462</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.379070653548736</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>-0.8560581919365262</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.1148188836763495</v>
       </c>
-      <c r="Y17" t="n">
-        <v>-0.01999482553647258</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>-0.1863278053582871</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1.233603995280957</v>
+        <v>-0.01999482553647253</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.2148226483046615</v>
+        <v>-0.1863278053582906</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.001889565220194</v>
+        <v>0.9616129599765607</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.0384957408619013</v>
+        <v>-0.16745750135091</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.006703737205812268</v>
+        <v>-1.560503174212876</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06247079470532135</v>
+        <v>-0.125757384075069</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.1372600118236607</v>
+        <v>0.02189968125445303</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.08632726983346561</v>
+        <v>0.204078777218889</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.06130785628441693</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.08323773029433745</v>
       </c>
     </row>
     <row r="18">
@@ -2281,46 +2387,46 @@
         <v>4.594817594852429</v>
       </c>
       <c r="C18" t="n">
-        <v>4.574022830805896</v>
+        <v>4.818127207084889</v>
       </c>
       <c r="D18" t="n">
-        <v>4.574022830805896</v>
+        <v>4.818127207084889</v>
       </c>
       <c r="E18" t="n">
         <v>3.292553462997105</v>
       </c>
       <c r="F18" t="n">
-        <v>4.712559036484948</v>
+        <v>4.977062661420195</v>
       </c>
       <c r="G18" t="n">
-        <v>4.712559036484948</v>
+        <v>4.977062661420195</v>
       </c>
       <c r="H18" t="n">
         <v>23.66666603088379</v>
       </c>
       <c r="I18" t="n">
-        <v>23.94198039227218</v>
+        <v>25.2334257974624</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94198039227218</v>
+        <v>25.2334257974624</v>
       </c>
       <c r="K18" t="n">
         <v>2.86811918</v>
       </c>
       <c r="L18" t="n">
-        <v>2.701523845719474</v>
+        <v>2.791264540665404</v>
       </c>
       <c r="M18" t="n">
-        <v>2.701523845719474</v>
+        <v>2.791264540665404</v>
       </c>
       <c r="N18" t="n">
         <v>2.21937769</v>
       </c>
       <c r="O18" t="n">
-        <v>2.356614523441314</v>
+        <v>2.39788810534662</v>
       </c>
       <c r="P18" t="n">
-        <v>2.356614523441314</v>
+        <v>2.39788810534662</v>
       </c>
       <c r="Q18" t="n">
         <v>-16.02695231088691</v>
@@ -2332,49 +2438,55 @@
         <v>1.825654008438819</v>
       </c>
       <c r="T18" t="n">
-        <v>-3.578556589685178</v>
+        <v>0.01246862472386223</v>
       </c>
       <c r="U18" t="n">
-        <v>-4.876782449965692</v>
+        <v>-0.1002170725125975</v>
       </c>
       <c r="V18" t="n">
+        <v>-0.009007085136554238</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.009007085136554238</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.180187139258738</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>-0.2096032942362047</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.1263059276634806</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
         <v>-0.01104843406225964</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
         <v>-0.2011288848330306</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1.857797933557207</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-0.1625082713821334</v>
-      </c>
       <c r="AC18" t="n">
-        <v>-2.958347510158123</v>
+        <v>3.750328917011777</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.009788681531332758</v>
+        <v>-0.3280547676415236</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.0008562512025843619</v>
+        <v>-5.972003743524542</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.01558744420632512</v>
+        <v>0.09235013509693499</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.06225814411308583</v>
+        <v>-0.008078198681044698</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02345471088259909</v>
+        <v>-0.1470578620483599</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.03320167761536119</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.07540468810167056</v>
       </c>
     </row>
     <row r="19">
@@ -2385,46 +2497,46 @@
         <v>4.793497920448075</v>
       </c>
       <c r="C19" t="n">
-        <v>4.574731914166477</v>
+        <v>4.884270427277159</v>
       </c>
       <c r="D19" t="n">
-        <v>4.574731914166477</v>
+        <v>4.884270427277159</v>
       </c>
       <c r="E19" t="n">
         <v>3.752370235210378</v>
       </c>
       <c r="F19" t="n">
-        <v>3.852885053568864</v>
+        <v>4.181742370894977</v>
       </c>
       <c r="G19" t="n">
-        <v>3.852885053568864</v>
+        <v>4.181742370894977</v>
       </c>
       <c r="H19" t="n">
         <v>21.5</v>
       </c>
       <c r="I19" t="n">
-        <v>18.84298984964137</v>
+        <v>20.31033687947338</v>
       </c>
       <c r="J19" t="n">
-        <v>18.84298984964137</v>
+        <v>20.31033687947338</v>
       </c>
       <c r="K19" t="n">
         <v>2.07325087</v>
       </c>
       <c r="L19" t="n">
-        <v>2.848075974006342</v>
+        <v>2.944961390711116</v>
       </c>
       <c r="M19" t="n">
-        <v>2.848075974006342</v>
+        <v>2.944961390711116</v>
       </c>
       <c r="N19" t="n">
         <v>2.25862414</v>
       </c>
       <c r="O19" t="n">
-        <v>2.415663592810867</v>
+        <v>2.463276945846903</v>
       </c>
       <c r="P19" t="n">
-        <v>2.415663592810867</v>
+        <v>2.463276945846903</v>
       </c>
       <c r="Q19" t="n">
         <v>-13.55379954518234</v>
@@ -2436,49 +2548,55 @@
         <v>1.733470719560364</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.302015248182187</v>
+        <v>0.008992084701161085</v>
       </c>
       <c r="U19" t="n">
-        <v>-4.876178618056888</v>
+        <v>-0.09574139239785673</v>
       </c>
       <c r="V19" t="n">
+        <v>-0.003344628117466719</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.003344628117466719</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.1313564579856536</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>-0.7746714240972175</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.1382896724646008</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
         <v>-0.007793395941804171</v>
       </c>
-      <c r="Z19" t="n">
-        <v>-0.2157638358458023</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-1.650681587438936</v>
-      </c>
       <c r="AB19" t="n">
-        <v>0.09302513308107292</v>
+        <v>-0.2157638358458005</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.575444606371685</v>
+        <v>-2.03044835985283</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.01760139856652062</v>
+        <v>0.114427113216069</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0009919371831147647</v>
+        <v>3.167968502642917</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02746224792697688</v>
+        <v>0.07159677428053325</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.0235713039910781</v>
+        <v>-0.004034878383756449</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.004103230162844973</v>
+        <v>-0.1117075077092844</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-0.03771181673895541</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-0.0565818677720813</v>
       </c>
     </row>
     <row r="20">
@@ -2489,46 +2607,46 @@
         <v>3.992547183212025</v>
       </c>
       <c r="C20" t="n">
-        <v>4.36201495080294</v>
+        <v>4.661428937491749</v>
       </c>
       <c r="D20" t="n">
-        <v>4.36201495080294</v>
+        <v>4.661428937491749</v>
       </c>
       <c r="E20" t="n">
         <v>2.685393864435426</v>
       </c>
       <c r="F20" t="n">
-        <v>3.348465181915543</v>
+        <v>3.799309081415556</v>
       </c>
       <c r="G20" t="n">
-        <v>3.348465181915543</v>
+        <v>3.799309081415556</v>
       </c>
       <c r="H20" t="n">
         <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>15.4213946016042</v>
+        <v>18.14747006296136</v>
       </c>
       <c r="J20" t="n">
-        <v>15.4213946016042</v>
+        <v>18.14747006296136</v>
       </c>
       <c r="K20" t="n">
         <v>1.36626254</v>
       </c>
       <c r="L20" t="n">
-        <v>2.780693184199905</v>
+        <v>2.900747554491758</v>
       </c>
       <c r="M20" t="n">
-        <v>2.780693184199905</v>
+        <v>2.900747554491758</v>
       </c>
       <c r="N20" t="n">
         <v>1.75489679</v>
       </c>
       <c r="O20" t="n">
-        <v>2.399593629120584</v>
+        <v>2.457614514426512</v>
       </c>
       <c r="P20" t="n">
-        <v>2.399593629120584</v>
+        <v>2.457614514426512</v>
       </c>
       <c r="Q20" t="n">
         <v>-13.95488187256424</v>
@@ -2540,49 +2658,55 @@
         <v>1.642953929539295</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.25184742428992</v>
+        <v>0.005744859889104281</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.873219706901331</v>
+        <v>-0.08905033559989128</v>
       </c>
       <c r="V20" t="n">
+        <v>0.001362848956093288</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.001362848956093288</v>
+      </c>
+      <c r="X20" t="n">
         <v>-1.318912018775364</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>-0.6383455064458143</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1482710404226308</v>
       </c>
-      <c r="Y20" t="n">
-        <v>-0.00466377738107937</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
+        <v>-0.004663777381079648</v>
+      </c>
+      <c r="AB20" t="n">
         <v>-0.2259159112090003</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0.06588312639778197</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.002072314551870309</v>
-      </c>
       <c r="AC20" t="n">
-        <v>-0.1003840432428832</v>
+        <v>-0.9079267877682085</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0201731748905018</v>
+        <v>0.02855829705113052</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.0006345352166593454</v>
+        <v>1.383379431243328</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.03073723077936015</v>
+        <v>-0.006736772110946914</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.01525976423996189</v>
+        <v>0.0002119011595451576</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.08987924439261885</v>
+        <v>0.01026460734148633</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>-0.0432008815639926</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.01966297622579205</v>
       </c>
     </row>
   </sheetData>
